--- a/biology/Botanique/Taxaceae/Taxaceae.xlsx
+++ b/biology/Botanique/Taxaceae/Taxaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Taxaceae (Taxacées) regroupe des plantes gymnospermes ; elle comprend de 15 à 20 espèces réparties en 3-6 genres :
 Taxus L. (l'if) dont l'if commun.
@@ -519,9 +531,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre Taxus qui dérive de la racine indo-européenne tecs, « travailler habilement » en référence au bois de l'if facile à sculpter et dont les qualités d'élasticité en faisaient le bois utilisé dans la confection d'armes de trait ou de jet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre Taxus qui dérive de la racine indo-européenne tecs, « travailler habilement » en référence au bois de l'if facile à sculpter et dont les qualités d'élasticité en faisaient le bois utilisé dans la confection d'armes de trait ou de jet.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juillet 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juillet 2017) :
 genre Amentotaxus
 genre Austrotaxus spicata
 genre Pseudotaxus
